--- a/Assets/Data/Excel/Item.xlsx
+++ b/Assets/Data/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\LeftInHell\LeftInHell\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24CC577-B4E7-44B5-B797-320957A46F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F02DC9-30B5-4725-B36A-A0A63E92650C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31560" yWindow="3360" windowWidth="18360" windowHeight="11385" xr2:uid="{18D96996-9D5B-4694-AE15-59A0D228E4B9}"/>
+    <workbookView xWindow="35250" yWindow="4125" windowWidth="18360" windowHeight="11385" activeTab="1" xr2:uid="{18D96996-9D5B-4694-AE15-59A0D228E4B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>ID(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 붕대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColorID(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96B259A-79D0-4B76-909E-8A5DE17D91D1}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -686,6 +694,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -695,10 +735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D2A10A-90D4-42D6-8AFA-8178FF090DF4}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -707,9 +747,10 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,8 +766,11 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -742,8 +786,11 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -759,8 +806,11 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -775,11 +825,15 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Data/Excel/Item.xlsx
+++ b/Assets/Data/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\LeftInHell\LeftInHell\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F02DC9-30B5-4725-B36A-A0A63E92650C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49A38DA-18B3-40FE-90B0-112A36B29610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35250" yWindow="4125" windowWidth="18360" windowHeight="11385" activeTab="1" xr2:uid="{18D96996-9D5B-4694-AE15-59A0D228E4B9}"/>
+    <workbookView xWindow="29235" yWindow="3720" windowWidth="18360" windowHeight="11385" xr2:uid="{18D96996-9D5B-4694-AE15-59A0D228E4B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96B259A-79D0-4B76-909E-8A5DE17D91D1}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -737,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D2A10A-90D4-42D6-8AFA-8178FF090DF4}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Excel/Item.xlsx
+++ b/Assets/Data/Excel/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\LeftInHell\LeftInHell\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49A38DA-18B3-40FE-90B0-112A36B29610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4AAEED-3358-4B33-85D3-34A1DAA4DCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29235" yWindow="3720" windowWidth="18360" windowHeight="11385" xr2:uid="{18D96996-9D5B-4694-AE15-59A0D228E4B9}"/>
+    <workbookView xWindow="10320" yWindow="3945" windowWidth="17265" windowHeight="11385" xr2:uid="{18D96996-9D5B-4694-AE15-59A0D228E4B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>ID(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>ColorID(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVNAME(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨테이너가로길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨테이너세로길이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +530,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,7 +618,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -618,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -738,7 +750,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -839,59 +851,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC8728A-9F12-46D3-8F4C-F4B08C241F22}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>28</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>30</v>
+      <c r="E3">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
